--- a/Bookdown/03_Data_Preparation/Tables_and_variable_names.xlsx
+++ b/Bookdown/03_Data_Preparation/Tables_and_variable_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Documents\SPL-Project\Bookdown\03_Data_Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A8F8B9-28AC-4E67-AB76-0B5BB413B6F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C512FE1-5452-43C0-BB2F-962FF1B0CC0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="1824" windowWidth="12960" windowHeight="8964" xr2:uid="{FD9B7096-4B19-4300-98E2-ED495DC31D3D}"/>
+    <workbookView minimized="1" xWindow="696" yWindow="2808" windowWidth="12960" windowHeight="8964" xr2:uid="{FD9B7096-4B19-4300-98E2-ED495DC31D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +132,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -469,132 +483,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599501BE-49AD-4787-9FC8-F4B3FB62AAE7}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
